--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7629646580218663</v>
+        <v>0.7578991863717265</v>
       </c>
       <c r="C4">
-        <v>0.002942819499025862</v>
+        <v>0.003439649936998634</v>
       </c>
       <c r="D4">
-        <v>0.5512589907764658</v>
+        <v>0.547540789731042</v>
       </c>
       <c r="E4">
-        <v>0.004083660469829331</v>
+        <v>0.004331865702548066</v>
       </c>
       <c r="F4">
-        <v>0.6997368421052633</v>
+        <v>0.7050000000000002</v>
       </c>
       <c r="G4">
-        <v>0.005836537179910062</v>
+        <v>0.005962580590782252</v>
       </c>
       <c r="H4">
-        <v>0.4550456183713917</v>
+        <v>0.4477718985584029</v>
       </c>
       <c r="I4">
-        <v>0.003804130965605612</v>
+        <v>0.003851747600584321</v>
       </c>
       <c r="J4">
-        <v>0.8626303545996925</v>
+        <v>0.8627224668932346</v>
       </c>
       <c r="K4">
-        <v>0.002412026768018993</v>
+        <v>0.002605029660640024</v>
       </c>
       <c r="L4">
-        <v>0.6918840579710145</v>
+        <v>0.6804347826086957</v>
       </c>
       <c r="M4">
-        <v>0.003935955658596391</v>
+        <v>0.00365675216286554</v>
       </c>
       <c r="N4">
-        <v>0.6939929328621908</v>
+        <v>0.6870318021201411</v>
       </c>
       <c r="O4">
-        <v>0.003296163770589389</v>
+        <v>0.003395970578757512</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7893586320874649</v>
+        <v>0.7919552504449531</v>
       </c>
       <c r="C5">
-        <v>0.003376609343208603</v>
+        <v>0.003431442071368696</v>
       </c>
       <c r="D5">
-        <v>0.5834093033321121</v>
+        <v>0.5829415580151931</v>
       </c>
       <c r="E5">
-        <v>0.00423585951405403</v>
+        <v>0.004459971558301135</v>
       </c>
       <c r="F5">
-        <v>0.7189473684210528</v>
+        <v>0.7231578947368422</v>
       </c>
       <c r="G5">
-        <v>0.00542240864892507</v>
+        <v>0.005723852574665123</v>
       </c>
       <c r="H5">
-        <v>0.4911574775589381</v>
+        <v>0.4885578210293315</v>
       </c>
       <c r="I5">
-        <v>0.004204448152233753</v>
+        <v>0.004349002428061133</v>
       </c>
       <c r="J5">
-        <v>0.8755928442567157</v>
+        <v>0.876559151272474</v>
       </c>
       <c r="K5">
-        <v>0.00224991804015251</v>
+        <v>0.002405929949676144</v>
       </c>
       <c r="L5">
-        <v>0.7260386473429951</v>
+        <v>0.7215458937198065</v>
       </c>
       <c r="M5">
-        <v>0.003825256806656685</v>
+        <v>0.003954634221210118</v>
       </c>
       <c r="N5">
-        <v>0.7241342756183748</v>
+        <v>0.7219787985865725</v>
       </c>
       <c r="O5">
-        <v>0.003323550667261088</v>
+        <v>0.003493452629197424</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8129369842460616</v>
+        <v>0.813649662415604</v>
       </c>
       <c r="C6">
-        <v>0.004472043889445443</v>
+        <v>0.004549021560886657</v>
       </c>
       <c r="D6">
-        <v>0.5870603595510828</v>
+        <v>0.588007749797391</v>
       </c>
       <c r="E6">
-        <v>0.007860890133734033</v>
+        <v>0.006980721275975932</v>
       </c>
       <c r="F6">
-        <v>0.7209677419354837</v>
+        <v>0.719032258064516</v>
       </c>
       <c r="G6">
-        <v>0.008648663846488547</v>
+        <v>0.008352678582901896</v>
       </c>
       <c r="H6">
-        <v>0.4956220458683444</v>
+        <v>0.4978244046761613</v>
       </c>
       <c r="I6">
-        <v>0.007763162862241546</v>
+        <v>0.006706713965560301</v>
       </c>
       <c r="J6">
-        <v>0.8793867297882068</v>
+        <v>0.8792819900873792</v>
       </c>
       <c r="K6">
-        <v>0.003817678166902483</v>
+        <v>0.003518682378847449</v>
       </c>
       <c r="L6">
-        <v>0.7341860465116278</v>
+        <v>0.7376744186046514</v>
       </c>
       <c r="M6">
-        <v>0.006126511625402675</v>
+        <v>0.005219427200739757</v>
       </c>
       <c r="N6">
-        <v>0.7306837606837605</v>
+        <v>0.7327350427350428</v>
       </c>
       <c r="O6">
-        <v>0.006004403058278984</v>
+        <v>0.005123895224313113</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8466466616654167</v>
+        <v>0.8460427606901726</v>
       </c>
       <c r="C7">
-        <v>0.005014957939726394</v>
+        <v>0.004966881537732948</v>
       </c>
       <c r="D7">
-        <v>0.6240904732684842</v>
+        <v>0.628076713668448</v>
       </c>
       <c r="E7">
-        <v>0.008092467227095224</v>
+        <v>0.007468989782290714</v>
       </c>
       <c r="F7">
-        <v>0.7393548387096773</v>
+        <v>0.7380645161290321</v>
       </c>
       <c r="G7">
-        <v>0.008805384063592214</v>
+        <v>0.007997576794518069</v>
       </c>
       <c r="H7">
-        <v>0.5405708455184457</v>
+        <v>0.5471699789474362</v>
       </c>
       <c r="I7">
-        <v>0.00827097942023769</v>
+        <v>0.007693734534283125</v>
       </c>
       <c r="J7">
-        <v>0.8914689846379109</v>
+        <v>0.8917973548361104</v>
       </c>
       <c r="K7">
-        <v>0.003666350411051456</v>
+        <v>0.003355049208761174</v>
       </c>
       <c r="L7">
-        <v>0.7722093023255813</v>
+        <v>0.778720930232558</v>
       </c>
       <c r="M7">
-        <v>0.005949065449035174</v>
+        <v>0.005482063314351082</v>
       </c>
       <c r="N7">
-        <v>0.7635042735042735</v>
+        <v>0.7679487179487181</v>
       </c>
       <c r="O7">
-        <v>0.005830409277083337</v>
+        <v>0.00539198277200803</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.803891843971631</v>
+        <v>0.8035802938196557</v>
       </c>
       <c r="C8">
-        <v>0.004133972144310993</v>
+        <v>0.003469888745176286</v>
       </c>
       <c r="D8">
-        <v>0.5224562124523354</v>
+        <v>0.5198457662920817</v>
       </c>
       <c r="E8">
-        <v>0.0051109049251018</v>
+        <v>0.004947334418590521</v>
       </c>
       <c r="F8">
-        <v>0.7508510638297875</v>
+        <v>0.7453191489361705</v>
       </c>
       <c r="G8">
-        <v>0.006635796344266254</v>
+        <v>0.006905941206129973</v>
       </c>
       <c r="H8">
-        <v>0.4008398446711756</v>
+        <v>0.3993582078761457</v>
       </c>
       <c r="I8">
-        <v>0.004560993825564741</v>
+        <v>0.004356904332612377</v>
       </c>
       <c r="J8">
-        <v>0.9076413844510058</v>
+        <v>0.9058904898297183</v>
       </c>
       <c r="K8">
-        <v>0.00244620282030672</v>
+        <v>0.002486830672527085</v>
       </c>
       <c r="L8">
-        <v>0.6852380952380952</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="M8">
-        <v>0.004451859072384545</v>
+        <v>0.004322490411660884</v>
       </c>
       <c r="N8">
-        <v>0.699581395348837</v>
+        <v>0.6987441860465117</v>
       </c>
       <c r="O8">
-        <v>0.00414828631887787</v>
+        <v>0.003956709714011852</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.827115768463074</v>
+        <v>0.8270134730538919</v>
       </c>
       <c r="C9">
-        <v>0.003623673213750234</v>
+        <v>0.003858890213735644</v>
       </c>
       <c r="D9">
-        <v>0.5588797922484628</v>
+        <v>0.557015177194143</v>
       </c>
       <c r="E9">
-        <v>0.004975114978925776</v>
+        <v>0.005193054106401473</v>
       </c>
       <c r="F9">
-        <v>0.766875</v>
+        <v>0.7660416666666666</v>
       </c>
       <c r="G9">
-        <v>0.006237314498903523</v>
+        <v>0.006538860775877509</v>
       </c>
       <c r="H9">
-        <v>0.4399430174248612</v>
+        <v>0.4379046315120568</v>
       </c>
       <c r="I9">
-        <v>0.004702147448903959</v>
+        <v>0.004833375665095674</v>
       </c>
       <c r="J9">
-        <v>0.9147069140039692</v>
+        <v>0.9141998519627925</v>
       </c>
       <c r="K9">
-        <v>0.002238914059035202</v>
+        <v>0.00237533285527225</v>
       </c>
       <c r="L9">
-        <v>0.7186227544910179</v>
+        <v>0.7165868263473055</v>
       </c>
       <c r="M9">
-        <v>0.004389157389049325</v>
+        <v>0.004468236643667911</v>
       </c>
       <c r="N9">
-        <v>0.7293953488372092</v>
+        <v>0.7276279069767442</v>
       </c>
       <c r="O9">
-        <v>0.003946967446748273</v>
+        <v>0.004092379683038994</v>
       </c>
     </row>
   </sheetData>
